--- a/Humanitak/webapp/Excel/prueba_empleado.xlsx
+++ b/Humanitak/webapp/Excel/prueba_empleado.xlsx
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
